--- a/branches/ezauto/bin/Debug/expense statement.xlsx
+++ b/branches/ezauto/bin/Debug/expense statement.xlsx
@@ -28,13 +28,13 @@
     <t>ទឹកប្រាក់ ($)</t>
   </si>
   <si>
-    <t xml:space="preserve">របាយការណ៏ចំណាយរបស់ក្រុមហ៊ុន  </t>
-  </si>
-  <si>
     <t xml:space="preserve">សំរាប់រយៈពេល </t>
   </si>
   <si>
     <t>ប្រភេទ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">របាយការណ៏ចំណាយរបស់ក្រុមហ៊ុន </t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -543,7 +543,7 @@
     </row>
     <row r="2" spans="1:5" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
